--- a/Product_Info for MultiSelect.xlsx
+++ b/Product_Info for MultiSelect.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cslr.sharepoint.com/sites/marketing.all/Files/03. Growth/06. Analytics/3. Analysis/2. Marketing Folder/Creative Ads &amp; Insights/Product Feature Preference Model/Automation Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_552F46997B12759B692AF2AF0C8E52336E2316FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D487E116-4F92-4C4F-B499-0781FC27E353}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="11_552F46997B12759B692AF2AF0C8E52336E2316FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B19CF317-27E2-41EC-9609-1C944FB965BB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="476">
   <si>
     <t>Furniture Sets</t>
   </si>
@@ -571,9 +571,6 @@
     <t>Sawyer</t>
   </si>
   <si>
-    <t>Sofa</t>
-  </si>
-  <si>
     <t>Mira</t>
   </si>
   <si>
@@ -682,9 +679,6 @@
     <t>Shade</t>
   </si>
   <si>
-    <t>Tobe</t>
-  </si>
-  <si>
     <t>Leopold</t>
   </si>
   <si>
@@ -778,9 +772,6 @@
     <t>Talbot</t>
   </si>
   <si>
-    <t>Tait</t>
-  </si>
-  <si>
     <t>Madison</t>
   </si>
   <si>
@@ -799,9 +790,6 @@
     <t>Luna</t>
   </si>
   <si>
-    <t>Alexis</t>
-  </si>
-  <si>
     <t>Claude</t>
   </si>
   <si>
@@ -814,21 +802,9 @@
     <t>Bristol</t>
   </si>
   <si>
-    <t>Ori</t>
-  </si>
-  <si>
     <t>Guin</t>
   </si>
   <si>
-    <t>Hebe</t>
-  </si>
-  <si>
-    <t>Viola</t>
-  </si>
-  <si>
-    <t>Rowan</t>
-  </si>
-  <si>
     <t>Astrid</t>
   </si>
   <si>
@@ -841,12 +817,6 @@
     <t>Capella</t>
   </si>
   <si>
-    <t>Sorrento Outdoor | Vista Outdoor</t>
-  </si>
-  <si>
-    <t>Castlery Signature Throw Cushion</t>
-  </si>
-  <si>
     <t>Vincent</t>
   </si>
   <si>
@@ -865,9 +835,6 @@
     <t>Renoir</t>
   </si>
   <si>
-    <t>Adams | Seb</t>
-  </si>
-  <si>
     <t>Winslow</t>
   </si>
   <si>
@@ -880,18 +847,9 @@
     <t>Odessa</t>
   </si>
   <si>
-    <t>Avery</t>
-  </si>
-  <si>
-    <t>Beverley</t>
-  </si>
-  <si>
     <t>Ellis</t>
   </si>
   <si>
-    <t>Percale | Waffle</t>
-  </si>
-  <si>
     <t>Aluminum</t>
   </si>
   <si>
@@ -940,9 +898,6 @@
     <t>Serena</t>
   </si>
   <si>
-    <t>Bowie</t>
-  </si>
-  <si>
     <t>Marlow</t>
   </si>
   <si>
@@ -1022,9 +977,6 @@
   </si>
   <si>
     <t>Albie</t>
-  </si>
-  <si>
-    <t>Hudson</t>
   </si>
   <si>
     <t>Riley</t>
@@ -1453,6 +1405,90 @@
 FROM dim_spu_property
 WHERE property_type = 'Material Helper'
 GROUP BY 1</t>
+  </si>
+  <si>
+    <t>Wall Mirrors</t>
+  </si>
+  <si>
+    <t>Bed Covers</t>
+  </si>
+  <si>
+    <t>Outdoor Bar Carts</t>
+  </si>
+  <si>
+    <t>Armrest Table</t>
+  </si>
+  <si>
+    <t>Armrest Organizer</t>
+  </si>
+  <si>
+    <t>Floor Mirrors</t>
+  </si>
+  <si>
+    <t>Indoor/Outdoor Coffee Tables</t>
+  </si>
+  <si>
+    <t>Headrest</t>
+  </si>
+  <si>
+    <t>Multi-Room Chairs</t>
+  </si>
+  <si>
+    <t>Rocking Chair Sets</t>
+  </si>
+  <si>
+    <t>Karo</t>
+  </si>
+  <si>
+    <t>Elliot</t>
+  </si>
+  <si>
+    <t>Swatch</t>
+  </si>
+  <si>
+    <t>Brooke</t>
+  </si>
+  <si>
+    <t>Elio</t>
+  </si>
+  <si>
+    <t>Preloved</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>Dawson | Mori</t>
+  </si>
+  <si>
+    <t>Hamilton | Madison | Owen</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Crescent | Dawson</t>
+  </si>
+  <si>
+    <t>Dakota</t>
+  </si>
+  <si>
+    <t>Evelyn</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Prototype</t>
+  </si>
+  <si>
+    <t>Ari</t>
+  </si>
+  <si>
+    <t>Edgar</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1849,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1846,12 +1882,12 @@
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
@@ -1859,7 +1895,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
@@ -1867,7 +1903,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -1877,10 +1913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:B142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1895,42 +1931,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1938,63 +1974,63 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -2002,31 +2038,31 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2034,55 +2070,55 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>90</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -2098,63 +2134,63 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -2162,7 +2198,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>110</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2170,63 +2206,63 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>451</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2234,111 +2270,111 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -2346,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -2354,15 +2390,15 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -2370,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -2378,183 +2414,183 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s">
-        <v>43</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B71" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>453</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B83" t="s">
-        <v>121</v>
+        <v>454</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -2562,39 +2598,39 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -2602,31 +2638,31 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B93" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -2634,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -2642,7 +2678,7 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -2650,39 +2686,39 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>59</v>
+        <v>455</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -2690,71 +2726,71 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B106" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B107" t="s">
-        <v>129</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -2762,15 +2798,15 @@
         <v>4</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -2778,31 +2814,31 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -2815,66 +2851,66 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>138</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B118" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B119" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B121" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
@@ -2887,18 +2923,18 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
@@ -2906,39 +2942,119 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
+        <v>457</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B133" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>6</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B137" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>8</v>
+      </c>
+      <c r="B138" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2950,9 +3066,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4B6060C-7C98-49EB-89C2-2FFC53E6BB8B}">
-  <dimension ref="A1:A192"/>
+  <dimension ref="A1:A195"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -2963,237 +3081,237 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>153</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>158</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>460</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>175</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>320</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>184</v>
+        <v>289</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>186</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>188</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>193</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
@@ -3203,237 +3321,237 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>202</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>206</v>
+        <v>282</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>288</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>462</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>463</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>228</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>237</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>242</v>
+        <v>321</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
@@ -3443,477 +3561,487 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>245</v>
+        <v>464</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>251</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>255</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>262</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>264</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>268</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>272</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>276</v>
+        <v>467</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>278</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>279</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>280</v>
+        <v>468</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>284</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>285</v>
+        <v>469</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>290</v>
+        <v>470</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>291</v>
+        <v>224</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>292</v>
+        <v>149</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>293</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>294</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>296</v>
+        <v>241</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>297</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>298</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>299</v>
+        <v>213</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>300</v>
+        <v>214</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>301</v>
+        <v>193</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>304</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>305</v>
+        <v>218</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>307</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>311</v>
+        <v>472</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>315</v>
+        <v>219</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>320</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>321</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>322</v>
+        <v>225</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>323</v>
+        <v>246</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>326</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>327</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>328</v>
+        <v>473</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>329</v>
+        <v>160</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>331</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>332</v>
+        <v>192</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>334</v>
+        <v>474</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>335</v>
+        <v>249</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>336</v>
+        <v>243</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>337</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>338</v>
+        <v>164</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>339</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -3926,7 +4054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AA73B9-80C6-49F9-A874-F625DF9F19EF}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -3937,62 +4067,62 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4018,287 +4148,287 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
@@ -4308,262 +4438,262 @@
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -4573,6 +4703,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="e52a0a31-1460-451e-b504-2d56b7525f74" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4f020d9-08d0-4f9f-8c32-e4fb9da43860">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A30CA3B31CEE5F48BFE1B38C36CE03A3" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a34ab589d9d8bae4dc35df14b42b9fcb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b4f020d9-08d0-4f9f-8c32-e4fb9da43860" xmlns:ns3="e52a0a31-1460-451e-b504-2d56b7525f74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="445223ffe79dbb529cfa47455c766e8e" ns2:_="" ns3:_="">
     <xsd:import namespace="b4f020d9-08d0-4f9f-8c32-e4fb9da43860"/>
@@ -4827,27 +4977,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A355BC-F472-4F53-A606-F2C3A0A9EE78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="e52a0a31-1460-451e-b504-2d56b7525f74"/>
+    <ds:schemaRef ds:uri="b4f020d9-08d0-4f9f-8c32-e4fb9da43860"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="e52a0a31-1460-451e-b504-2d56b7525f74" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4f020d9-08d0-4f9f-8c32-e4fb9da43860">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B1C5433-8001-4593-8462-A600DEF37175}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B5AC890-6FAA-49AC-BC28-3C063CA3E933}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4864,23 +5013,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0B1C5433-8001-4593-8462-A600DEF37175}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0A355BC-F472-4F53-A606-F2C3A0A9EE78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="e52a0a31-1460-451e-b504-2d56b7525f74"/>
-    <ds:schemaRef ds:uri="b4f020d9-08d0-4f9f-8c32-e4fb9da43860"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>